--- a/doc/requirements/web-translate.xlsx
+++ b/doc/requirements/web-translate.xlsx
@@ -491,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
